--- a/Фриланс/Projects/atena.com.ua/крохмал.xlsx
+++ b/Фриланс/Projects/atena.com.ua/крохмал.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>крохмал</t>
   </si>
@@ -48,16 +48,255 @@
   </si>
   <si>
     <t>куплю крохмаль</t>
+  </si>
+  <si>
+    <t>минус слова</t>
+  </si>
+  <si>
+    <t>Title:</t>
+  </si>
+  <si>
+    <t>H1:</t>
+  </si>
+  <si>
+    <t>крахмал кукурузный</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал</t>
+  </si>
+  <si>
+    <t>крахмал загуститель</t>
+  </si>
+  <si>
+    <t>кукурузная крахмал</t>
+  </si>
+  <si>
+    <t>крахмал за кг</t>
+  </si>
+  <si>
+    <t>кукурузного крахмала</t>
+  </si>
+  <si>
+    <t>нативный крахмал</t>
+  </si>
+  <si>
+    <t>крахмал для выпечки</t>
+  </si>
+  <si>
+    <t>крахмал из кукурузы</t>
+  </si>
+  <si>
+    <t>крахмал в кондитерском производстве</t>
+  </si>
+  <si>
+    <t>крахмал</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал где можно</t>
+  </si>
+  <si>
+    <t>крахмал кукурузный за кг</t>
+  </si>
+  <si>
+    <t>картофельный и кукурузный крахмал</t>
+  </si>
+  <si>
+    <t>крахмал кукурузный нативный</t>
+  </si>
+  <si>
+    <t>крахмал кукурузный кг</t>
+  </si>
+  <si>
+    <t>Крахмал кукурузный сухой</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал мешок</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал Interstarch</t>
+  </si>
+  <si>
+    <t>крахмал кукурузный где</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал Днепровский крахмальнопаточный комбинат</t>
+  </si>
+  <si>
+    <t>Крахмал кукурузный экстра порошок</t>
+  </si>
+  <si>
+    <t>крахмал нативный</t>
+  </si>
+  <si>
+    <t>крахмала кукурузного</t>
+  </si>
+  <si>
+    <t>крахмал с кукурузы в мешках</t>
+  </si>
+  <si>
+    <t>крахмал экстра</t>
+  </si>
+  <si>
+    <t>экстра крахмал</t>
+  </si>
+  <si>
+    <t>картофельный крахмал</t>
+  </si>
+  <si>
+    <t>крахмал картофельный</t>
+  </si>
+  <si>
+    <t>крахмал картофельный экстра</t>
+  </si>
+  <si>
+    <t>экстра крахмал картофельный</t>
+  </si>
+  <si>
+    <t>крахмал картофельный сухой</t>
+  </si>
+  <si>
+    <t>загуститель кондитерский</t>
+  </si>
+  <si>
+    <t>крахмал в мешках</t>
+  </si>
+  <si>
+    <t>нативный крахмал картофельный</t>
+  </si>
+  <si>
+    <t>картофельный крахмал нативный</t>
+  </si>
+  <si>
+    <t>крахмал картофельный нативный</t>
+  </si>
+  <si>
+    <t>крахмала картофельного</t>
+  </si>
+  <si>
+    <t>на крахмал картофельный</t>
+  </si>
+  <si>
+    <t>крахмал из картофеля</t>
+  </si>
+  <si>
+    <t>картофель крахмал</t>
+  </si>
+  <si>
+    <t>картофельного крахмала</t>
+  </si>
+  <si>
+    <t>крахмала картофельного экстра</t>
+  </si>
+  <si>
+    <t>крахмала экстра картофельного</t>
+  </si>
+  <si>
+    <t>экстра крахмала картофельного</t>
+  </si>
+  <si>
+    <t>экстра картофельного крахмала</t>
+  </si>
+  <si>
+    <t>крахмал порошок</t>
+  </si>
+  <si>
+    <t>крахмальный порошок</t>
+  </si>
+  <si>
+    <t>порошок крахмала картофельного</t>
+  </si>
+  <si>
+    <t>крахмал украина</t>
+  </si>
+  <si>
+    <t>крахмал вимал</t>
+  </si>
+  <si>
+    <t>крахмал нативный картофельный</t>
+  </si>
+  <si>
+    <t>крахмал картофельный киев</t>
+  </si>
+  <si>
+    <t>сертифицированный натуральный картофельный крахмал</t>
+  </si>
+  <si>
+    <t>Крахмал картофельный в/с мешок 25кг</t>
+  </si>
+  <si>
+    <t>крахмал высший сорт</t>
+  </si>
+  <si>
+    <t>картофельный крахмал екстра</t>
+  </si>
+  <si>
+    <t>картоффельного крахмала</t>
+  </si>
+  <si>
+    <t>крахмал картофельный или кукурузный</t>
+  </si>
+  <si>
+    <t>Кромаль картопляний сухий</t>
+  </si>
+  <si>
+    <t>картопляний крохмаль</t>
+  </si>
+  <si>
+    <t>Крахмал для глажки белья</t>
+  </si>
+  <si>
+    <t>крахмал для белья</t>
+  </si>
+  <si>
+    <t>крахмал для крема</t>
+  </si>
+  <si>
+    <t>крахмал картофелный в Украине</t>
+  </si>
+  <si>
+    <t>крахмал картофельний</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -84,8 +323,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -366,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:K6"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,65 +636,440 @@
     <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.85546875" customWidth="1"/>
     <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="56" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" customWidth="1"/>
+    <col min="20" max="20" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" t="s">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>5000</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="T2" t="s">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>5000</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>5000</v>
       </c>
       <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>5000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="R5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>5</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>7</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="R6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>50</v>
+      </c>
+      <c r="T20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>51</v>
+      </c>
+      <c r="T21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>54</v>
+      </c>
+      <c r="T24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>55</v>
+      </c>
+      <c r="T25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>56</v>
+      </c>
+      <c r="T26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R27" t="s">
+        <v>57</v>
+      </c>
+      <c r="T27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R29" t="s">
+        <v>59</v>
+      </c>
+      <c r="T29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Фриланс/Projects/atena.com.ua/крохмал.xlsx
+++ b/Фриланс/Projects/atena.com.ua/крохмал.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="235">
   <si>
     <t>крохмал</t>
   </si>
@@ -255,13 +255,487 @@
   </si>
   <si>
     <t>крахмал картофельний</t>
+  </si>
+  <si>
+    <t>амилопектиновый крахмал</t>
+  </si>
+  <si>
+    <t>бобовый крахмал</t>
+  </si>
+  <si>
+    <t>вода крахмал</t>
+  </si>
+  <si>
+    <t>восковой кукурузный крахмал</t>
+  </si>
+  <si>
+    <t>генно модифицированный крахмал</t>
+  </si>
+  <si>
+    <t>горох крахмал</t>
+  </si>
+  <si>
+    <t>гороховый крахмал</t>
+  </si>
+  <si>
+    <t>гречка крахмал</t>
+  </si>
+  <si>
+    <t>животный крахмал</t>
+  </si>
+  <si>
+    <t>замена кукурузного крахмала</t>
+  </si>
+  <si>
+    <t>заменитель крахмала</t>
+  </si>
+  <si>
+    <t>заменитель кукурузного крахмала</t>
+  </si>
+  <si>
+    <t>из чего делают крахмал</t>
+  </si>
+  <si>
+    <t>картофельный крахмал для лечения желудка</t>
+  </si>
+  <si>
+    <t>картофельный крахмал и кукурузный</t>
+  </si>
+  <si>
+    <t>картофельный крахмал цена</t>
+  </si>
+  <si>
+    <t>картофельный крахмал цена пятерочка</t>
+  </si>
+  <si>
+    <t>картошка без крахмала</t>
+  </si>
+  <si>
+    <t>картошка крахмал</t>
+  </si>
+  <si>
+    <t>китайский крахмал</t>
+  </si>
+  <si>
+    <t>клейстеризация крахмала</t>
+  </si>
+  <si>
+    <t>количество крахмала в картофеле</t>
+  </si>
+  <si>
+    <t>крахмал 1 кг цена</t>
+  </si>
+  <si>
+    <t>крахмал без глютена</t>
+  </si>
+  <si>
+    <t>крахмал бобовый</t>
+  </si>
+  <si>
+    <t>крахмал в бедронке</t>
+  </si>
+  <si>
+    <t>крахмал в картофеле</t>
+  </si>
+  <si>
+    <t>крахмал в кукурузе</t>
+  </si>
+  <si>
+    <t>крахмал в лечебных целях</t>
+  </si>
+  <si>
+    <t>крахмал в пакетиках</t>
+  </si>
+  <si>
+    <t>крахмал в пятерочке</t>
+  </si>
+  <si>
+    <t>крахмал для еды</t>
+  </si>
+  <si>
+    <t>крахмал для здоровья</t>
+  </si>
+  <si>
+    <t>крахмал для организма</t>
+  </si>
+  <si>
+    <t>крахмал для панировки</t>
+  </si>
+  <si>
+    <t>крахмал для похудения</t>
+  </si>
+  <si>
+    <t>крахмал для теста</t>
+  </si>
+  <si>
+    <t>крахмал е1422</t>
+  </si>
+  <si>
+    <t>крахмал е1442</t>
+  </si>
+  <si>
+    <t>крахмал из корней маранта</t>
+  </si>
+  <si>
+    <t>крахмал из пшеницы</t>
+  </si>
+  <si>
+    <t>крахмал картофельный модифицированный</t>
+  </si>
+  <si>
+    <t>крахмал картофельный цена</t>
+  </si>
+  <si>
+    <t>крахмал картофельный цена за 1 кг</t>
+  </si>
+  <si>
+    <t>крахмал картофельный цена за кг</t>
+  </si>
+  <si>
+    <t>крахмал китайский</t>
+  </si>
+  <si>
+    <t>крахмал кузу</t>
+  </si>
+  <si>
+    <t>крахмал кукурузный 25 кг</t>
+  </si>
+  <si>
+    <t>крахмал кукурузный и картофельный</t>
+  </si>
+  <si>
+    <t>крахмал кукурузный модифицированный</t>
+  </si>
+  <si>
+    <t>крахмал кукурузный цена</t>
+  </si>
+  <si>
+    <t>крахмал кукурузный цена за 1 кг</t>
+  </si>
+  <si>
+    <t>крахмал магнит</t>
+  </si>
+  <si>
+    <t>крахмал модифицированный</t>
+  </si>
+  <si>
+    <t>крахмал модифицированный е1422</t>
+  </si>
+  <si>
+    <t>крахмал модифицированный кукурузный</t>
+  </si>
+  <si>
+    <t>крахмал мондамин</t>
+  </si>
+  <si>
+    <t>крахмал мука</t>
+  </si>
+  <si>
+    <t>крахмал пищевой</t>
+  </si>
+  <si>
+    <t>крахмал производство</t>
+  </si>
+  <si>
+    <t>крахмал пшеничный</t>
+  </si>
+  <si>
+    <t>крахмал пятерочка</t>
+  </si>
+  <si>
+    <t>крахмал рисовый</t>
+  </si>
+  <si>
+    <t>крахмал рисовый цена</t>
+  </si>
+  <si>
+    <t>крахмал сколько стоит</t>
+  </si>
+  <si>
+    <t>крахмал стоимость</t>
+  </si>
+  <si>
+    <t>крахмал тапиока</t>
+  </si>
+  <si>
+    <t>крахмал тапиоковый</t>
+  </si>
+  <si>
+    <t>крахмал тапиоковый модифицированный</t>
+  </si>
+  <si>
+    <t>крахмал технический</t>
+  </si>
+  <si>
+    <t>крахмал цена</t>
+  </si>
+  <si>
+    <t>крахмал цена за 1 кг</t>
+  </si>
+  <si>
+    <t>крахмал цена за кг</t>
+  </si>
+  <si>
+    <t>крахмал цена за тонну</t>
+  </si>
+  <si>
+    <t>крахмал цена магнит</t>
+  </si>
+  <si>
+    <t>крахмал экструзионный</t>
+  </si>
+  <si>
+    <t>крахмалопродукты</t>
+  </si>
+  <si>
+    <t>крупы без глютена и крахмала</t>
+  </si>
+  <si>
+    <t>крупы без крахмала</t>
+  </si>
+  <si>
+    <t>кузу крахмал</t>
+  </si>
+  <si>
+    <t>кукуруз крахмал</t>
+  </si>
+  <si>
+    <t>кукурузная мука и кукурузный крахмал</t>
+  </si>
+  <si>
+    <t>кукурузный и картофельный крахмал</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал без глютена</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал в выпечке</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал в кулинарии</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал для чего используют</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал для чего нужен</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал доктор эткер</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал и картофельный</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал и кукурузная мука</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал магнит</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал мондамин</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал польза</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал пятерочка</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал свойства</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал сильпо</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал сколько стоит</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал стоимость</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал цена</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал цена за 1 кг</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал цена магнит</t>
+  </si>
+  <si>
+    <t>кукурузный крахмал цена пятерочка</t>
+  </si>
+  <si>
+    <t>кукурузный модифицированный крахмал</t>
+  </si>
+  <si>
+    <t>куплю крахмал</t>
+  </si>
+  <si>
+    <t>маниоковый крахмал</t>
+  </si>
+  <si>
+    <t>модифицированный картофельный крахмал</t>
+  </si>
+  <si>
+    <t>модифицированный крахмал</t>
+  </si>
+  <si>
+    <t>модифицированный крахмал е1422</t>
+  </si>
+  <si>
+    <t>модифицированный крахмал кукурузный</t>
+  </si>
+  <si>
+    <t>модифицированный кукурузный крахмал</t>
+  </si>
+  <si>
+    <t>модифицированный пищевой крахмал</t>
+  </si>
+  <si>
+    <t>модифицированный рисовый крахмал</t>
+  </si>
+  <si>
+    <t>мондамин крахмал</t>
+  </si>
+  <si>
+    <t>мука без крахмала</t>
+  </si>
+  <si>
+    <t>мука и крахмал</t>
+  </si>
+  <si>
+    <t>мука крахмал</t>
+  </si>
+  <si>
+    <t>окисленный крахмал</t>
+  </si>
+  <si>
+    <t>осахаривание крахмала</t>
+  </si>
+  <si>
+    <t>отличие кукурузного и картофельного крахмала</t>
+  </si>
+  <si>
+    <t>пальмовый крахмал</t>
+  </si>
+  <si>
+    <t>пиковый крахмал</t>
+  </si>
+  <si>
+    <t>пищевой крахмал</t>
+  </si>
+  <si>
+    <t>полезный крахмал</t>
+  </si>
+  <si>
+    <t>получение крахмала</t>
+  </si>
+  <si>
+    <t>продам крахмал</t>
+  </si>
+  <si>
+    <t>производство пшеничного крахмала</t>
+  </si>
+  <si>
+    <t>пшеничный крахмал</t>
+  </si>
+  <si>
+    <t>пшеничный крахмал цена</t>
+  </si>
+  <si>
+    <t>растительный крахмал</t>
+  </si>
+  <si>
+    <t>рафинированный крахмал</t>
+  </si>
+  <si>
+    <t>резистентный крахмал</t>
+  </si>
+  <si>
+    <t>рисовый крахмал</t>
+  </si>
+  <si>
+    <t>рисовый крахмал в косметике</t>
+  </si>
+  <si>
+    <t>рисовый крахмал цена</t>
+  </si>
+  <si>
+    <t>свойства крахмала</t>
+  </si>
+  <si>
+    <t>свойства кукурузного крахмала</t>
+  </si>
+  <si>
+    <t>соевый крахмал</t>
+  </si>
+  <si>
+    <t>стоимость крахмала</t>
+  </si>
+  <si>
+    <t>стоимость крахмала картофельного</t>
+  </si>
+  <si>
+    <t>стоимость кукурузного крахмала</t>
+  </si>
+  <si>
+    <t>тапиока из крахмала</t>
+  </si>
+  <si>
+    <t>тапиока из кукурузного крахмала</t>
+  </si>
+  <si>
+    <t>тапиока крахмал</t>
+  </si>
+  <si>
+    <t>тапиоковый</t>
+  </si>
+  <si>
+    <t>тапиоковый крахмал</t>
+  </si>
+  <si>
+    <t>тапиоковый крахмал в выпечке</t>
+  </si>
+  <si>
+    <t>тапиоковый крахмал из чего делают</t>
+  </si>
+  <si>
+    <t>технический крахмал</t>
+  </si>
+  <si>
+    <t>цена картофельного крахмала</t>
+  </si>
+  <si>
+    <t>цена крахмал</t>
+  </si>
+  <si>
+    <t>цена крахмала за 1 кг</t>
+  </si>
+  <si>
+    <t>цена крахмала за кг</t>
+  </si>
+  <si>
+    <t>цена кукурузного крахмала</t>
+  </si>
+  <si>
+    <t>цена на крахмал картофельный</t>
+  </si>
+  <si>
+    <t>цены на крахмал</t>
+  </si>
+  <si>
+    <t>яблочный крахмал</t>
+  </si>
+  <si>
+    <t>ячменный крахмал</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +776,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,11 +805,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,6 +821,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -622,68 +1105,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="56" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.42578125" customWidth="1"/>
     <col min="20" max="20" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="6"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="5"/>
       <c r="R2" t="s">
         <v>0</v>
       </c>
@@ -691,23 +1174,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="6"/>
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="5"/>
       <c r="R3" t="s">
         <v>1</v>
       </c>
@@ -716,14 +1199,20 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="8">
+        <v>500</v>
+      </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>5000</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>5000</v>
@@ -742,16 +1231,28 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="8">
+        <v>50</v>
+      </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>5000</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5">
+        <v>5000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5">
         <v>500</v>
       </c>
       <c r="R5" t="s">
@@ -762,16 +1263,28 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="8">
+        <v>50</v>
+      </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H6">
+        <v>500</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6">
         <v>50</v>
       </c>
       <c r="R6" t="s">
@@ -782,10 +1295,28 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="8">
+        <v>50</v>
+      </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7">
         <v>50</v>
       </c>
       <c r="R7" t="s">
@@ -796,6 +1327,30 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>500</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
       <c r="R8" t="s">
         <v>38</v>
       </c>
@@ -804,6 +1359,24 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="8">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
       <c r="R9" t="s">
         <v>39</v>
       </c>
@@ -812,6 +1385,24 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="8">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
       <c r="R10" t="s">
         <v>40</v>
       </c>
@@ -820,6 +1411,24 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="8">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
       <c r="R11" t="s">
         <v>41</v>
       </c>
@@ -828,6 +1437,24 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="8">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
       <c r="R12" t="s">
         <v>42</v>
       </c>
@@ -836,6 +1463,24 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="8">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
       <c r="R13" t="s">
         <v>43</v>
       </c>
@@ -844,6 +1489,24 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="8">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
       <c r="R14" t="s">
         <v>44</v>
       </c>
@@ -852,6 +1515,18 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="8">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
       <c r="R15" t="s">
         <v>45</v>
       </c>
@@ -860,6 +1535,18 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="8">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>50</v>
+      </c>
       <c r="R16" t="s">
         <v>46</v>
       </c>
@@ -867,7 +1554,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
       <c r="R17" t="s">
         <v>47</v>
       </c>
@@ -875,7 +1574,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="8">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
       <c r="R18" t="s">
         <v>48</v>
       </c>
@@ -883,7 +1594,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="8">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
       <c r="R19" t="s">
         <v>49</v>
       </c>
@@ -891,7 +1614,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="8">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
       <c r="R20" t="s">
         <v>50</v>
       </c>
@@ -899,7 +1634,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="8">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
       <c r="R21" t="s">
         <v>51</v>
       </c>
@@ -907,7 +1654,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="8">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
       <c r="R22" t="s">
         <v>52</v>
       </c>
@@ -915,7 +1674,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="8">
+        <v>50</v>
+      </c>
       <c r="R23" t="s">
         <v>53</v>
       </c>
@@ -923,7 +1688,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="8">
+        <v>50</v>
+      </c>
       <c r="R24" t="s">
         <v>54</v>
       </c>
@@ -931,7 +1702,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="8">
+        <v>50</v>
+      </c>
       <c r="R25" t="s">
         <v>55</v>
       </c>
@@ -939,7 +1716,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="8">
+        <v>50</v>
+      </c>
       <c r="R26" t="s">
         <v>56</v>
       </c>
@@ -947,7 +1730,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="8">
+        <v>50</v>
+      </c>
       <c r="R27" t="s">
         <v>57</v>
       </c>
@@ -955,7 +1744,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="8">
+        <v>50</v>
+      </c>
       <c r="R28" t="s">
         <v>58</v>
       </c>
@@ -963,7 +1758,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="8">
+        <v>50</v>
+      </c>
       <c r="R29" t="s">
         <v>59</v>
       </c>
@@ -971,99 +1772,973 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="8">
+        <v>50</v>
+      </c>
       <c r="R30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="8">
+        <v>50</v>
+      </c>
       <c r="R31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="8">
+        <v>50</v>
+      </c>
       <c r="R32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="8">
+        <v>50</v>
+      </c>
       <c r="R33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="8">
+        <v>50</v>
+      </c>
       <c r="R34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="8">
+        <v>50</v>
+      </c>
       <c r="R35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="8">
+        <v>50</v>
+      </c>
       <c r="R36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="8">
+        <v>50</v>
+      </c>
       <c r="R37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="8">
+        <v>50</v>
+      </c>
       <c r="R38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="8">
+        <v>50</v>
+      </c>
       <c r="R39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="8">
+        <v>50</v>
+      </c>
       <c r="R40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="8">
+        <v>50</v>
+      </c>
       <c r="R41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="8">
+        <v>50</v>
+      </c>
       <c r="R42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="8">
+        <v>50</v>
+      </c>
       <c r="R43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="8">
+        <v>50</v>
+      </c>
       <c r="R44" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="8">
+        <v>50</v>
+      </c>
       <c r="R45" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="8">
+        <v>50</v>
+      </c>
       <c r="R46" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="8">
+        <v>50</v>
+      </c>
       <c r="R47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="8">
+        <v>50</v>
+      </c>
       <c r="R48" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B90" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B93" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B103" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B105" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B107" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B112" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B113" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B114" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B116" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B118" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B119" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B120" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B121" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B122" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B124" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B126" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B127" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B128" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B130" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B131" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B133" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B134" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B135" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B136" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B137" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B138" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B139" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B140" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B141" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B142" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B143" s="8">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1071,5 +2746,6 @@
     <mergeCell ref="A1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>